--- a/data/trans_bre/P25A_7_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_7_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,62</t>
+          <t>24,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,15</t>
+          <t>10,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,24</t>
+          <t>12,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>348,9%</t>
+          <t>26,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>112,19%</t>
+          <t>400,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>86,26%</t>
+          <t>74,51%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>88,14%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>195,7%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,24; 29,63</t>
+          <t>8,68; 39,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 25,52</t>
+          <t>-7,24; 27,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 22,4</t>
+          <t>-4,66; 30,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>95,68; 1043,66</t>
+          <t>6,96; 52,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,17; 304,7</t>
+          <t>38,66; 2248,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 270,91</t>
+          <t>-35,39; 447,8</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-23,47; 492,59</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17,56; 834,72</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,23</t>
+          <t>9,53</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,85</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,65</t>
+          <t>13,5</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>173,67%</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>216,7%</t>
+          <t>89,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>219,88%</t>
+          <t>239,26%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>129,13%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>65,62%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 17,93</t>
+          <t>1,7; 17,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,44; 19,8</t>
+          <t>7,59; 22,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,23; 23,96</t>
+          <t>-1,69; 21,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,79; 367,03</t>
+          <t>-7,44; 19,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>93,91; 405,69</t>
+          <t>9,16; 250,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,69; 496,44</t>
+          <t>83,22; 665,67</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-31,69; 410,99</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-40,79; 208,07</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>-26,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>-26,28%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,38%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-19,18%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 8,1</t>
+          <t>-10,68; 3,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 5,72</t>
+          <t>-11,01; 3,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 9,12</t>
+          <t>-7,34; 8,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 98,35</t>
+          <t>-13,11; 6,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-39,1; 82,66</t>
+          <t>-62,89; 49,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 114,36</t>
+          <t>-63,36; 47,3</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-45,86; 97,37</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-55,06; 52,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>125,62%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>115,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>120,59%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 14,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,82; 13,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 16,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>62,69; 200,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,69; 189,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,05; 212,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,4</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,3</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,44</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,43</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>59,69%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>75,77%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>72,82%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>53,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 11,84</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,11; 12,08</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 14,16</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 16,99</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5,31; 141,7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15,96; 167,51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,4; 162,97</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 138,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25A_7_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_7_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>24,87</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,72</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>12,94</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>26,78</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>400,27%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>74,51%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>88,14%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>195,7%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>24.16374212733825</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>11.19998013877832</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>13.48806392974607</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>23.72544944651697</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>4.268179690834179</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.7694512338280648</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.9398899012018527</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.679009896227337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>8,68; 39,18</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,24; 27,26</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,66; 30,26</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>6,96; 52,52</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>38,66; 2248,41</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-35,39; 447,8</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-23,47; 492,59</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>17,56; 834,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>9.003065725019987</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.322669311041063</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.925551219023328</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>2.563171626711882</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.4410925596169729</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3554090900264463</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2172225801944266</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.04103695670199306</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>38.24029630130735</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>28.34290835215292</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>31.99585587416832</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>48.17295439487655</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>22.38796491978349</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>4.345175843933883</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>5.2349275112734</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>7.518667640684712</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>9,53</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>15,25</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>13,5</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>89,66%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>239,26%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>129,13%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>65,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,7; 17,64</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,59; 22,36</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,69; 21,55</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,44; 19,59</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>9,16; 250,67</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>83,22; 665,67</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-31,69; 410,99</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-40,79; 208,07</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>8.922133036333783</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>14.99391992014787</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>13.68027050362052</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>9.898647241142783</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.880427124498687</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.420287136147316</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.379535043194607</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.6566879286511412</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,32</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,4</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-26,37%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-26,28%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,38%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-19,18%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.630038185355349</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>7.862789181045058</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3499669075278768</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.904075838970338</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.07624784764964763</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.8534116207951842</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2979148238321636</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4073937617584857</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,68; 3,77</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,01; 3,67</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,34; 8,07</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-13,11; 6,25</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-62,89; 49,81</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-63,36; 47,3</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-45,86; 97,37</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-55,06; 52,92</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>16.48315319103086</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>22.43233214090493</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>21.59709424315548</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>19.40992437938119</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.539287484470004</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>6.593425784095847</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>4.322639827183047</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.107386026218037</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-4.031633588596654</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.367945909547415</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.6156392693622545</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-3.72276010894885</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.3064720491189971</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.2722805506714343</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.05152479316426006</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2101680449299652</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-14.0561943809149</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.77536021220936</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.922438454887351</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-13.64296575452498</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.6879935768017499</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.6461007091826245</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4787261232811607</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5591520862357522</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.19834530345073</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.552315598356463</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.92328616109442</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.67536139282484</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.4426899132965963</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.508829545839982</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.990286508612504</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.4856569839830479</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6,4</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,3</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,44</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>8,43</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>59,69%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>75,77%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>72,82%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>53,28%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 11,84</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,11; 12,08</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 14,16</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 16,99</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>5,31; 141,7</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>15,96; 167,51</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-5,4; 162,97</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-5,38; 138,38</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>5.772552639953236</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.395401182022411</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8.750168598088361</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.775247963020196</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.5406678500773823</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.7732119397256924</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.778699322392339</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4921436495553164</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.03291220708318876</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.338400151998337</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.264477996981606</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.396386924864251</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.01409322175246176</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.1409393949497721</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.01754111038552988</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.0989718135421357</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.88089769506376</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.36378105117868</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>14.42331009404809</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>15.60909928134707</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.410816261144394</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.732189891774933</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.674862530237777</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.271947639291197</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
